--- a/hungate_incubation/SICO2_FL_Soil_Bulk_Density.xlsx
+++ b/hungate_incubation/SICO2_FL_Soil_Bulk_Density.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Meta-data" sheetId="3" r:id="rId1"/>
@@ -352,12 +352,6 @@
     <t>2. Soil bulk density 2002</t>
   </si>
   <si>
-    <t>3 April 2001     .</t>
-  </si>
-  <si>
-    <t>May 2002     .</t>
-  </si>
-  <si>
     <t>Plot</t>
   </si>
   <si>
@@ -371,6 +365,12 @@
   </si>
   <si>
     <t>Bulk Density, g/cm3</t>
+  </si>
+  <si>
+    <t>May 2002</t>
+  </si>
+  <si>
+    <t>3 April 2001</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,7 +523,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -535,6 +533,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -906,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1022,8 +1021,8 @@
       <c r="B14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>106</v>
+      <c r="C14" s="15" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1033,8 +1032,8 @@
       <c r="B15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>107</v>
+      <c r="C15" s="15" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1052,7 +1051,7 @@
       <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C17">
@@ -1063,7 +1062,7 @@
       <c r="A18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C18">
@@ -1074,7 +1073,7 @@
       <c r="A19" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C19">
@@ -1085,7 +1084,7 @@
       <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C20" t="s">
@@ -1096,7 +1095,7 @@
       <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C21" t="s">
@@ -1107,7 +1106,7 @@
       <c r="A22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C22" t="s">
@@ -1118,7 +1117,7 @@
       <c r="A23" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C23" t="s">
@@ -1129,7 +1128,7 @@
       <c r="A24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1137,7 +1136,7 @@
       <c r="A25" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1145,7 +1144,7 @@
       <c r="A26" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1153,13 +1152,13 @@
       <c r="A27" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>67</v>
       </c>
       <c r="E27" t="s">
@@ -1168,7 +1167,7 @@
       <c r="F27" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="12" t="s">
         <v>70</v>
       </c>
       <c r="H27" t="s">
@@ -1188,10 +1187,10 @@
       <c r="B28" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E28" t="s">
@@ -1208,10 +1207,10 @@
       <c r="A29" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1254,17 +1253,17 @@
       <c r="A32" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C32" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -1275,16 +1274,16 @@
         <v>105</v>
       </c>
       <c r="D33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" t="s">
         <v>108</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" t="s">
         <v>110</v>
-      </c>
-      <c r="F33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G33" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="48" spans="3:9">
@@ -1396,13 +1395,13 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
         <v>108</v>
       </c>
-      <c r="B1" t="s">
-        <v>110</v>
-      </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
